--- a/ToxicityScenarios_DLTrates.xlsx
+++ b/ToxicityScenarios_DLTrates.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyry/Desktop/Portfolio/BOIN-Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E67E2E1-85C8-A84D-B802-F98A3829453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A639516F-4FDE-EE49-B0A3-FBF8245D6ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{6A54767E-0B58-D24D-BF13-622422DFCB1A}"/>
+    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{6A54767E-0B58-D24D-BF13-622422DFCB1A}"/>
   </bookViews>
   <sheets>
     <sheet name="DLT=0.15" sheetId="3" r:id="rId1"/>
     <sheet name="DLT=0.2" sheetId="1" r:id="rId2"/>
     <sheet name="DLT=0.25" sheetId="2" r:id="rId3"/>
     <sheet name="DLT=0.3" sheetId="4" r:id="rId4"/>
-    <sheet name="Boundaries_local" sheetId="5" r:id="rId5"/>
-    <sheet name="Boundaries_global" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,12 +38,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
-    <t>Dose level</t>
+    <t>Scenario</t>
   </si>
   <si>
-    <t>Scenario</t>
+    <t>Dose_1</t>
+  </si>
+  <si>
+    <t>Dose_2</t>
+  </si>
+  <si>
+    <t>Dose_3</t>
+  </si>
+  <si>
+    <t>Dose_4</t>
+  </si>
+  <si>
+    <t>Dose_5</t>
   </si>
 </sst>
 </file>
@@ -77,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -114,43 +124,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -159,10 +139,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -480,835 +456,753 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014FC18-78AA-264D-823F-94387EB92F07}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>0.35</v>
+      </c>
+      <c r="E2">
+        <v>0.45</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-      <c r="D3">
-        <v>0.35</v>
-      </c>
-      <c r="E3">
-        <v>0.45</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>5</v>
+      <c r="A7" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>6</v>
+      <c r="A8" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>7</v>
+      <c r="A9" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>8</v>
+      <c r="A10" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>9</v>
+      <c r="A11" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>10</v>
+      <c r="A12" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>11</v>
+      <c r="A13" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>12</v>
+      <c r="A14" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>13</v>
+      <c r="A15" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>14</v>
+      <c r="A16" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC7119-AF4A-9340-A8BD-D9B28376A1C3}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="4"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.45</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="B3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3+0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:F3" si="0">D3+0.1</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="6">
-        <f>C4+0.1</f>
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" ref="E4:F4" si="0">D4+0.1</f>
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="F3" s="8">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="4">
+        <f>D4+0.1</f>
+        <v>0.35</v>
+      </c>
+      <c r="F4" s="8">
+        <f>E4+0.1</f>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.15</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="4">
         <v>0.25</v>
       </c>
-      <c r="E5" s="6">
-        <f>D5+0.1</f>
+      <c r="E6" s="4">
         <v>0.35</v>
       </c>
-      <c r="F5" s="12">
-        <f>E5+0.1</f>
+      <c r="F6" s="8">
+        <f>E6+0.1</f>
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="C8" s="4">
         <v>0.15</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="D8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F9" s="8">
         <v>0.45</v>
       </c>
-      <c r="F6" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="4">
         <v>0.1</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="D10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.25</v>
       </c>
-      <c r="E7" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="F7" s="12">
-        <f>E7+0.1</f>
-        <v>0.44999999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="F10" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="4">
         <v>0.1</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="D11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.3</v>
       </c>
-      <c r="E8" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="F11" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="4">
         <v>0.15</v>
       </c>
-      <c r="D9" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="E12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="8">
         <v>0.25</v>
       </c>
-      <c r="F9" s="12">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.08</v>
-      </c>
-      <c r="C10" s="6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="4">
         <v>0.15</v>
       </c>
-      <c r="D10" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="E13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="8">
         <v>0.3</v>
       </c>
-      <c r="F10" s="12">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C16" s="4">
         <v>0.05</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D16" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E16" s="4">
         <v>0.1</v>
       </c>
-      <c r="D11" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="F16" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D17" s="7">
         <v>0.1</v>
       </c>
-      <c r="D12" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="D17" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="9">
-        <f>D18+0.05</f>
+      <c r="E17" s="7">
+        <f>D17+0.05</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="F18" s="14">
-        <f>E18+0.05</f>
+      <c r="F17" s="10">
+        <f>E17+0.05</f>
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169CAA16-0BD3-A14D-B050-BA32E5F5D1C4}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>0.35</v>
+      </c>
+      <c r="E2">
+        <v>0.45</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-      <c r="D3">
-        <v>0.35</v>
-      </c>
-      <c r="E3">
-        <v>0.45</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>5</v>
+      <c r="A7" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>6</v>
+      <c r="A8" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>7</v>
+      <c r="A9" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>8</v>
+      <c r="A10" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>9</v>
+      <c r="A11" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>10</v>
+      <c r="A12" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>11</v>
+      <c r="A13" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>12</v>
+      <c r="A14" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>13</v>
+      <c r="A15" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>14</v>
+      <c r="A16" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E854F6-0F78-FB46-A7CD-1329FF58A22E}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>0.35</v>
+      </c>
+      <c r="E2">
+        <v>0.45</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-      <c r="D3">
-        <v>0.35</v>
-      </c>
-      <c r="E3">
-        <v>0.45</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>5</v>
+      <c r="A7" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>6</v>
+      <c r="A8" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>7</v>
+      <c r="A9" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>8</v>
+      <c r="A10" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>9</v>
+      <c r="A11" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>10</v>
+      <c r="A12" s="3">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>11</v>
+      <c r="A13" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>12</v>
+      <c r="A14" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>13</v>
+      <c r="A15" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>14</v>
+      <c r="A16" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96090969-9C03-3447-A78F-F66A438011F4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A02F61B-B50D-4948-AA4E-C891FB1D8C69}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ToxicityScenarios_DLTrates.xlsx
+++ b/ToxicityScenarios_DLTrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyry/Desktop/Portfolio/BOIN-Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A639516F-4FDE-EE49-B0A3-FBF8245D6ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9469AFB-92BF-D04D-A76E-A22393C2471A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{6A54767E-0B58-D24D-BF13-622422DFCB1A}"/>
+    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{6A54767E-0B58-D24D-BF13-622422DFCB1A}"/>
   </bookViews>
   <sheets>
     <sheet name="DLT=0.15" sheetId="3" r:id="rId1"/>
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +77,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -142,6 +155,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D014FC18-78AA-264D-823F-94387EB92F07}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,95 +505,320 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
-        <v>0.25</v>
-      </c>
-      <c r="D2">
-        <v>0.35</v>
-      </c>
-      <c r="E2">
-        <v>0.45</v>
-      </c>
-      <c r="F2">
-        <v>0.5</v>
+      <c r="B2" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
+      <c r="B3" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
+      <c r="B5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
+      <c r="B6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
+      <c r="B7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
+      <c r="B8" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
+      <c r="B10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="B11" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
+      <c r="B12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
+      <c r="B13" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
+      <c r="B14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
+      <c r="B15" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -588,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC7119-AF4A-9340-A8BD-D9B28376A1C3}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169CAA16-0BD3-A14D-B050-BA32E5F5D1C4}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,96 +1223,517 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
-        <v>0.25</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="14">
         <v>0.35</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="14">
         <v>0.45</v>
       </c>
-      <c r="F2">
-        <v>0.5</v>
+      <c r="E2" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
+      <c r="B3" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.45</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
+      <c r="B5" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
+      <c r="B6" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
+      <c r="B7" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
+      <c r="B8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
+      <c r="B10" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="B11" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
+      <c r="B12" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
+      <c r="B13" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
+      <c r="B14" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
+      <c r="B15" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
+      <c r="B17" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1081,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E854F6-0F78-FB46-A7CD-1329FF58A22E}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,95 +1774,320 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="C2">
-        <v>0.25</v>
-      </c>
-      <c r="D2">
-        <v>0.35</v>
-      </c>
-      <c r="E2">
-        <v>0.45</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="4">
         <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
+      <c r="B3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
+      <c r="B5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
+      <c r="B6" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
+      <c r="B7" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
+      <c r="B8" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
+      <c r="B10" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="B11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
+      <c r="B12" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
+      <c r="B13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
+      <c r="B14" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
+      <c r="B15" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/ToxicityScenarios_DLTrates.xlsx
+++ b/ToxicityScenarios_DLTrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyry/Desktop/Portfolio/BOIN-Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9469AFB-92BF-D04D-A76E-A22393C2471A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2D065E-15C4-8D4A-B7FA-280A7984588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{6A54767E-0B58-D24D-BF13-622422DFCB1A}"/>
+    <workbookView xWindow="380" yWindow="60" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{6A54767E-0B58-D24D-BF13-622422DFCB1A}"/>
   </bookViews>
   <sheets>
     <sheet name="DLT=0.15" sheetId="3" r:id="rId1"/>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169CAA16-0BD3-A14D-B050-BA32E5F5D1C4}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1473,7 @@
         <v>0.2</v>
       </c>
       <c r="E14" s="13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F14" s="14">
         <v>0.35</v>
@@ -1744,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E854F6-0F78-FB46-A7CD-1329FF58A22E}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+    <sheetView zoomScale="175" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
